--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H2">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>32.33979697993334</v>
+        <v>0.8374905372746666</v>
       </c>
       <c r="R2">
-        <v>291.0581728194001</v>
+        <v>7.537414835472</v>
       </c>
       <c r="S2">
-        <v>0.04089719513965113</v>
+        <v>0.00300380421354898</v>
       </c>
       <c r="T2">
-        <v>0.04089719513965113</v>
+        <v>0.003003804213548979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H3">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I3">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J3">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>483.1120075600621</v>
+        <v>105.9484260826347</v>
       </c>
       <c r="R3">
-        <v>4348.00806804056</v>
+        <v>953.535834743712</v>
       </c>
       <c r="S3">
-        <v>0.6109477452734831</v>
+        <v>0.3800022979621162</v>
       </c>
       <c r="T3">
-        <v>0.6109477452734831</v>
+        <v>0.3800022979621161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H4">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I4">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J4">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>61.6886011039511</v>
+        <v>20.17806271858934</v>
       </c>
       <c r="R4">
-        <v>555.1974099355599</v>
+        <v>181.602564467304</v>
       </c>
       <c r="S4">
-        <v>0.07801195408882207</v>
+        <v>0.07237210107781318</v>
       </c>
       <c r="T4">
-        <v>0.07801195408882207</v>
+        <v>0.07237210107781314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.060377</v>
       </c>
       <c r="I5">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J5">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>6.067664527270002</v>
+        <v>0.7165021586046667</v>
       </c>
       <c r="R5">
-        <v>54.60898074543001</v>
+        <v>6.448519427442001</v>
       </c>
       <c r="S5">
-        <v>0.007673222573650546</v>
+        <v>0.002569858532416806</v>
       </c>
       <c r="T5">
-        <v>0.007673222573650546</v>
+        <v>0.002569858532416805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.060377</v>
       </c>
       <c r="I6">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J6">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
-        <v>90.64254771881465</v>
+        <v>90.64254771881467</v>
       </c>
       <c r="R6">
-        <v>815.7829294693319</v>
+        <v>815.7829294693321</v>
       </c>
       <c r="S6">
-        <v>0.1146273727170177</v>
+        <v>0.3251051261434068</v>
       </c>
       <c r="T6">
-        <v>0.1146273727170177</v>
+        <v>0.3251051261434066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.060377</v>
       </c>
       <c r="I7">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J7">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>11.57415233273133</v>
+        <v>17.26303146227434</v>
       </c>
       <c r="R7">
-        <v>104.167370994582</v>
+        <v>155.367283160469</v>
       </c>
       <c r="S7">
-        <v>0.01463677606948098</v>
+        <v>0.06191683886214678</v>
       </c>
       <c r="T7">
-        <v>0.01463677606948098</v>
+        <v>0.06191683886214675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H8">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I8">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J8">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>5.902316510310003</v>
+        <v>0.2851171501588888</v>
       </c>
       <c r="R8">
-        <v>53.12084859279002</v>
+        <v>2.56605435143</v>
       </c>
       <c r="S8">
-        <v>0.007464121999526245</v>
+        <v>0.00102262181945283</v>
       </c>
       <c r="T8">
-        <v>0.007464121999526243</v>
+        <v>0.00102262181945283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H9">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I9">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J9">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>88.172476169844</v>
+        <v>36.06931895230888</v>
       </c>
       <c r="R9">
-        <v>793.552285528596</v>
+        <v>324.62387057078</v>
       </c>
       <c r="S9">
-        <v>0.1115036982483797</v>
+        <v>0.1293688315588146</v>
       </c>
       <c r="T9">
-        <v>0.1115036982483797</v>
+        <v>0.1293688315588146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H10">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I10">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J10">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>11.258748749094</v>
+        <v>6.869464766459444</v>
       </c>
       <c r="R10">
-        <v>101.328738741846</v>
+        <v>61.825182898135</v>
       </c>
       <c r="S10">
-        <v>0.01423791388998848</v>
+        <v>0.02463851983028408</v>
       </c>
       <c r="T10">
-        <v>0.01423791388998848</v>
+        <v>0.02463851983028407</v>
       </c>
     </row>
   </sheetData>
